--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D4AA4A-C682-F045-B06D-DB60817BDE91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="4140" windowWidth="28760" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="16960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -55,6 +49,9 @@
     <t>tags</t>
   </si>
   <si>
+    <t>output</t>
+  </si>
+  <si>
     <t>options</t>
   </si>
   <si>
@@ -112,139 +109,137 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>output</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>StartMachineConfigCategory</t>
   </si>
   <si>
     <t>StartMachineConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartConfig/Localhost/StartMachineConfig.xlsx</t>
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartProcessConfigCategory</t>
   </si>
   <si>
     <t>StartProcessConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartConfig/Localhost/StartProcessConfig.xlsx</t>
+  </si>
+  <si>
+    <t>StartSceneConfigCategory</t>
   </si>
   <si>
     <t>StartSceneConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartConfig/Localhost/StartSceneConfig.xlsx</t>
+  </si>
+  <si>
+    <t>StartZoneConfigCategory</t>
   </si>
   <si>
     <t>StartZoneConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartConfig/Localhost/StartZoneConfig.xlsx</t>
   </si>
   <si>
     <t>AIConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AIConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AIConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnitConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnitConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnitConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartMachineConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartProcessConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartSceneConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartZoneConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Localhost/StartMachineConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Localhost/StartProcessConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Localhost/StartSceneConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Localhost/StartZoneConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel_CHSCategory</t>
+  </si>
+  <si>
+    <t>LocalizeConfig_CHS</t>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel.csv</t>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel_CHTCategory</t>
+  </si>
+  <si>
+    <t>LocalizeConfig_CHT</t>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel_ENCategory</t>
   </si>
   <si>
     <t>LocalizeConfig_EN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_CHS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_CHT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_Excel.csv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_Excel_CHSCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_Excel_CHTCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_Excel_ENCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_UI_CHSCategory</t>
+  </si>
+  <si>
+    <t>LocalizeConfig_UI.csv</t>
+  </si>
+  <si>
+    <t>LocalizeConfig_UI_CHTCategory</t>
   </si>
   <si>
     <t>LocalizeConfig_UI_ENCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_UI_CHTCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_UI_CHSCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_UI.csv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelCategory</t>
+  </si>
+  <si>
+    <t>ModelConfig</t>
+  </si>
+  <si>
+    <t>Model@ModelDifficultyConfig.xlsx</t>
+  </si>
+  <si>
+    <t>DifficultyNormalCategory</t>
+  </si>
+  <si>
+    <t>DifficultyNormalConfig</t>
+  </si>
+  <si>
+    <t>Difficulty_Normal@ModelDifficultyConfig.xlsx</t>
+  </si>
+  <si>
+    <t>DifficultyHappyCategroy</t>
+  </si>
+  <si>
+    <t>DifficultyHappyConfig</t>
+  </si>
+  <si>
+    <t>Difficulty_Happy@ModelDifficultyConfig.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,7 +251,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -264,19 +258,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +412,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -298,38 +601,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -587,30 +1178,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8303571428571" customWidth="1"/>
+    <col min="3" max="3" width="18.1607142857143" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.4285714285714" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3303571428571" customWidth="1"/>
+    <col min="11" max="11" width="4.71428571428571" customWidth="1"/>
+    <col min="12" max="12" width="33.3303571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,277 +1237,324 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="2:12">
       <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="2:8">
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" display="Model@ModelDifficultyConfig.xlsx"/>
+    <hyperlink ref="E17" r:id="rId2" display="Difficulty_Normal@ModelDifficultyConfig.xlsx"/>
+    <hyperlink ref="E18" r:id="rId3" display="Difficulty_Happy@ModelDifficultyConfig.xlsx"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16960"/>
+    <workbookView windowWidth="29140" windowHeight="14140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>Difficulty_Happy@ModelDifficultyConfig.xlsx</t>
+  </si>
+  <si>
+    <t>RandomNameCategory</t>
+  </si>
+  <si>
+    <t>RandomName</t>
+  </si>
+  <si>
+    <t>RandomName.xlsx</t>
   </si>
 </sst>
 </file>
@@ -234,12 +243,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,60 +264,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,9 +341,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,62 +387,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,31 +416,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,13 +554,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,121 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,15 +617,32 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -659,32 +678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -699,153 +692,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -856,13 +858,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,10 +1186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1547,6 +1549,20 @@
         <v>70</v>
       </c>
     </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" display="Model@ModelDifficultyConfig.xlsx"/>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="14140"/>
+    <workbookView windowWidth="29140" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -236,17 +236,44 @@
   </si>
   <si>
     <t>RandomName.xlsx</t>
+  </si>
+  <si>
+    <t>ResourceMonsterCategory</t>
+  </si>
+  <si>
+    <t>ResourceMonsterConfig</t>
+  </si>
+  <si>
+    <t>ResourceMonster@ResourceMonster.xlsx</t>
+  </si>
+  <si>
+    <t>ResourceExtraBossCategory</t>
+  </si>
+  <si>
+    <t>ResourceExtraBossConfig</t>
+  </si>
+  <si>
+    <t>ResourceExtraBoss@ResourceMonster.xlsx</t>
+  </si>
+  <si>
+    <t>HeroCategory</t>
+  </si>
+  <si>
+    <t>HeroConfig</t>
+  </si>
+  <si>
+    <t>Hero.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -281,16 +308,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,13 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -317,9 +354,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,16 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,9 +400,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,31 +414,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,12 +443,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,7 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,151 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,11 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,28 +655,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,17 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,8 +712,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,148 +733,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -855,69 +882,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1186,16 +1213,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="33.8303571428571" customWidth="1"/>
-    <col min="3" max="3" width="18.1607142857143" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="43.4285714285714" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
@@ -1563,11 +1590,55 @@
         <v>73</v>
       </c>
     </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" display="Model@ModelDifficultyConfig.xlsx"/>
     <hyperlink ref="E17" r:id="rId2" display="Difficulty_Normal@ModelDifficultyConfig.xlsx"/>
     <hyperlink ref="E18" r:id="rId3" display="Difficulty_Happy@ModelDifficultyConfig.xlsx"/>
+    <hyperlink ref="E20" r:id="rId4" display="ResourceMonster@ResourceMonster.xlsx"/>
+    <hyperlink ref="E21" r:id="rId5" display="ResourceExtraBoss@ResourceMonster.xlsx" tooltip="mailto:ResourceExtraBoss@ResourceMonster.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -235,7 +235,7 @@
     <t>RandomName</t>
   </si>
   <si>
-    <t>RandomName.xlsx</t>
+    <t>RandomNameConfig.xlsx</t>
   </si>
   <si>
     <t>ResourceMonsterCategory</t>
@@ -244,7 +244,7 @@
     <t>ResourceMonsterConfig</t>
   </si>
   <si>
-    <t>ResourceMonster@ResourceMonster.xlsx</t>
+    <t>ResourceMonster@MonsterConfig.xlsx</t>
   </si>
   <si>
     <t>ResourceExtraBossCategory</t>
@@ -253,7 +253,7 @@
     <t>ResourceExtraBossConfig</t>
   </si>
   <si>
-    <t>ResourceExtraBoss@ResourceMonster.xlsx</t>
+    <t>ResourceExtraBoss@MonsterConfig.xlsx</t>
   </si>
   <si>
     <t>HeroCategory</t>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1600,7 +1600,7 @@
       <c r="D20" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1637,8 +1637,8 @@
     <hyperlink ref="E16" r:id="rId1" display="Model@ModelDifficultyConfig.xlsx"/>
     <hyperlink ref="E17" r:id="rId2" display="Difficulty_Normal@ModelDifficultyConfig.xlsx"/>
     <hyperlink ref="E18" r:id="rId3" display="Difficulty_Happy@ModelDifficultyConfig.xlsx"/>
-    <hyperlink ref="E20" r:id="rId4" display="ResourceMonster@ResourceMonster.xlsx"/>
-    <hyperlink ref="E21" r:id="rId5" display="ResourceExtraBoss@ResourceMonster.xlsx" tooltip="mailto:ResourceExtraBoss@ResourceMonster.xlsx"/>
+    <hyperlink ref="E20" r:id="rId4" display="ResourceMonster@MonsterConfig.xlsx" tooltip="mailto:ResourceMonster@MonsterConfig.xlsx"/>
+    <hyperlink ref="E21" r:id="rId5" display="ResourceExtraBoss@MonsterConfig.xlsx" tooltip="mailto:ResourceExtraBoss@MonsterConfig.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
